--- a/data/trans_orig/Q02G_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Estudios-trans_orig.xlsx
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4.003296791146066</v>
+        <v>4.003296791146067</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>5.690496569385786</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.774788536980461</v>
+        <v>2.707494639955137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.203939089785216</v>
+        <v>3.083029514947962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.410174400214058</v>
+        <v>3.439796900565894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.9722099435289</v>
+        <v>2.882908968851556</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.464937732138421</v>
+        <v>3.482321832323655</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.190152759049168</v>
+        <v>3.273665293042027</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.198848720312395</v>
+        <v>6.109584589721369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.46014047576806</v>
+        <v>11.33982461964163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.897246190064132</v>
+        <v>4.88517878816044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.228905496847924</v>
+        <v>4.267951003865349</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.724467737805642</v>
+        <v>4.90726054091598</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.296007336589351</v>
+        <v>5.552342482871539</v>
       </c>
     </row>
     <row r="7">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3.457322506833077</v>
+        <v>3.457322506833078</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>3.42027604937326</v>
@@ -702,7 +702,7 @@
         <v>3.809390183718803</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>3.831985612036996</v>
+        <v>3.831985612036997</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.701405901594225</v>
+        <v>2.730917714201014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.68732084642843</v>
+        <v>2.699736971131747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.243068306765271</v>
+        <v>3.217956411698378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.42214846290736</v>
+        <v>3.438542417507686</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.262483177348036</v>
+        <v>3.290471348497547</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.346378665011513</v>
+        <v>3.320394607034639</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.308716177243275</v>
+        <v>4.294450536244018</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.664712273836956</v>
+        <v>4.71231755419262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.807602524794824</v>
+        <v>4.764847392171903</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.825879559923169</v>
+        <v>4.846008814466338</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.51429513063017</v>
+        <v>4.536756366553874</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.456567295934209</v>
+        <v>4.474169733102111</v>
       </c>
     </row>
     <row r="10">
@@ -781,10 +781,10 @@
         <v>5.335667851715909</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>2.657690998213893</v>
+        <v>2.657690998213894</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.302486288007436</v>
+        <v>4.302486288007435</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.56687027355518</v>
+        <v>1.620135004233948</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.145331423569203</v>
+        <v>1.140008159521945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.538321940984788</v>
+        <v>1.464156850310461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.116251725841009</v>
+        <v>3.16369928688866</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.857588351956583</v>
+        <v>1.749330078307697</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.61893181874437</v>
+        <v>2.750758898448493</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.46019654032288</v>
+        <v>5.30396297702278</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.898339780024819</v>
+        <v>1.893808132357208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.855597384135292</v>
+        <v>3.771028552298464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.012545437222727</v>
+        <v>9.022406984612283</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.260714384671898</v>
+        <v>4.240050174232551</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.993504004404187</v>
+        <v>7.27022751110525</v>
       </c>
     </row>
     <row r="13">
@@ -860,13 +860,13 @@
         <v>3.927793035337523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.06895016838658</v>
+        <v>4.068950168386581</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.827727560496572</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>3.934024626993209</v>
+        <v>3.93402462699321</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.465944883632257</v>
+        <v>3.406393291777655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.525850920623615</v>
+        <v>3.521165634772819</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.40736050369651</v>
+        <v>3.404909386776233</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.464474634658365</v>
+        <v>3.474121309336044</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.488359147506339</v>
+        <v>4.520165404940597</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.910985840960135</v>
+        <v>4.928899749449366</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.305858065459699</v>
+        <v>4.321688304921881</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.525963952054947</v>
+        <v>4.607979119228981</v>
       </c>
     </row>
     <row r="16">
